--- a/technical_analysis/files/scores.xlsx
+++ b/technical_analysis/files/scores.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25.46081856745195</v>
+        <v>-49.23133063912064</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15.20187191647256</v>
+        <v>65.682063133273</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.745786076729928</v>
+        <v>-33.90910666809759</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>99.96538035277536</v>
+        <v>-152.7449295828274</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-34.40982965512376</v>
+        <v>-37.74496453425706</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>102.6506013784374</v>
+        <v>-49.28346024243808</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25.22824696608495</v>
+        <v>-82.732549493644</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.10161549233207</v>
+        <v>21.02655904993367</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>50.40390590425704</v>
+        <v>-76.2943012092037</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>91.51739825658478</v>
+        <v>-65.17181881577199</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16.79458487467687</v>
+        <v>6.925587699254493</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>97.86785626194182</v>
+        <v>-47.33599412424564</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35.63083352857393</v>
+        <v>-121.5909002711765</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>28.09975859271799</v>
+        <v>-76.89982007245726</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35.07606228535542</v>
+        <v>-90.98111909623913</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-22.22309648266219</v>
+        <v>47.65595738161846</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-124.3634253327571</v>
+        <v>118.5657640459942</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30.13062269212696</v>
+        <v>-158.5168493144251</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17.94500040552521</v>
+        <v>-93.12491727577435</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-114.8259358546993</v>
+        <v>-27.18659480664701</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.3913349003551048</v>
+        <v>94.83594563171027</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>104.0855242690413</v>
+        <v>41.58263084262035</v>
       </c>
     </row>
     <row r="24">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>171.4368942335673</v>
+        <v>-81.74400891744949</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>155.9865038010512</v>
+        <v>-246.9662012032277</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>113.5358850759017</v>
+        <v>-109.1915033560862</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>34.14373340601605</v>
+        <v>-148.2255607412842</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>116.3354183394158</v>
+        <v>86.38780303461135</v>
       </c>
     </row>
   </sheetData>

--- a/technical_analysis/files/scores.xlsx
+++ b/technical_analysis/files/scores.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-49.23133063912064</v>
+        <v>-1.745868907013801</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>65.682063133273</v>
+        <v>174.4074996300624</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-33.90910666809759</v>
+        <v>39.45752615621859</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-152.7449295828274</v>
+        <v>102.8254265694013</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-37.74496453425706</v>
+        <v>-41.36732299713458</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-49.28346024243808</v>
+        <v>22.88818730895036</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-82.732549493644</v>
+        <v>-51.3682016398534</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.02655904993367</v>
+        <v>140.8954172366961</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-76.2943012092037</v>
+        <v>15.20242385114943</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-65.17181881577199</v>
+        <v>-46.01412996335148</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.925587699254493</v>
+        <v>92.11547368462107</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-47.33599412424564</v>
+        <v>35.57727029391162</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-121.5909002711765</v>
+        <v>-24.96151697474625</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-76.89982007245726</v>
+        <v>-133.5215558310229</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-90.98111909623913</v>
+        <v>179.6817247740501</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>47.65595738161846</v>
+        <v>75.63769892399341</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>118.5657640459942</v>
+        <v>27.61431716978745</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-158.5168493144251</v>
+        <v>6.662611800727973</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-93.12491727577435</v>
+        <v>-52.52796070729892</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-27.18659480664701</v>
+        <v>-37.99132780857326</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>94.83594563171027</v>
+        <v>80.49225136345558</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>41.58263084262035</v>
+        <v>23.33487374689958</v>
       </c>
     </row>
     <row r="24">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-81.74400891744949</v>
+        <v>25.05401481235367</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-246.9662012032277</v>
+        <v>-56.23104125400823</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-109.1915033560862</v>
+        <v>-36.05087072672359</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-148.2255607412842</v>
+        <v>-77.5318543473586</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>86.38780303461135</v>
+        <v>94.15688997380494</v>
       </c>
     </row>
   </sheetData>
